--- a/biology/Botanique/Pisolithus_arrhizus/Pisolithus_arrhizus.xlsx
+++ b/biology/Botanique/Pisolithus_arrhizus/Pisolithus_arrhizus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pisolithus arrhizus[2] (également orthographié P. arhizus[3]) est une espèce de champignons de la famille des Sclerodermataceae. Il est connu en Australie comme le « champignon crottin de cheval », à cause de son aspect et non de son habitat (sols sableux). Le gel visqueux noir de cette espèce est utilisé comme un colorant naturel pour les vêtements[4]. Pisolithus arrhizus est une composante majeure dans les mélanges de champignons mycorhiziens qui sont utilisés dans le jardinage comme de puissants stimulateurs de racines[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pisolithus arrhizus (également orthographié P. arhizus) est une espèce de champignons de la famille des Sclerodermataceae. Il est connu en Australie comme le « champignon crottin de cheval », à cause de son aspect et non de son habitat (sols sableux). Le gel visqueux noir de cette espèce est utilisé comme un colorant naturel pour les vêtements. Pisolithus arrhizus est une composante majeure dans les mélanges de champignons mycorhiziens qui sont utilisés dans le jardinage comme de puissants stimulateurs de racines.
 </t>
         </is>
       </c>
